--- a/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:16:41+00:00</t>
+    <t>2023-03-19T16:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:22:10+00:00</t>
+    <t>2023-03-20T09:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:04:21+00:00</t>
+    <t>2023-03-20T09:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:08:06+00:00</t>
+    <t>2023-03-20T10:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
